--- a/vaadin-spreadsheet-flow-parent/vaadin-spreadsheet/src/test/resources/test_sheets/spreadsheet_hyperlinks.xlsx
+++ b/vaadin-spreadsheet-flow-parent/vaadin-spreadsheet/src/test/resources/test_sheets/spreadsheet_hyperlinks.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\GIT\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hyperlinks</t>
   </si>
@@ -25,36 +29,30 @@
   </si>
   <si>
     <t>link to B5</t>
+  </si>
+  <si>
+    <t>http://google.com</t>
+  </si>
+  <si>
+    <t>http://mail.google.com</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,25 +62,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,7 +86,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -102,65 +94,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -219,85 +171,390 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6020408163265"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
-        <f aca="false">HYPERLINK("http://www.google.com",  "Ext from formula")</f>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="str">
+        <f>HYPERLINK(G1,F1)</f>
+        <v>google</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>HYPERLINK("http://www.google.com",  "Ext from formula")</f>
         <v>Ext from formula</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>HYPERLINK(G2,F2)</f>
+        <v>gmail</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
-        <f aca="false">HYPERLINK(("#B4"), "link to B4")</f>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>HYPERLINK(("#B4"), "link to B4")</f>
         <v>link to B4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <f aca="false">HYPERLINK("[spreadsheet_hyperlinks.xlsx]Sheet1!B6", "explicit link to next cell")</f>
+        <f>HYPERLINK("[spreadsheet_hyperlinks.xlsx]Sheet1!B6", "explicit link to next cell")</f>
         <v>explicit link to next cell</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3" t="str">
-        <f aca="false">HYPERLINK("http://www.google.com",  "merged cell link")</f>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="str">
+        <f>HYPERLINK( "http://www.google.com" )</f>
+        <v>http://www.google.com</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>HYPERLINK("http://www.google.com",  "merged cell link")</f>
         <v>merged cell link</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="n">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="str">
+        <f>HYPERLINK(( "http://www.google.com" ))</f>
+        <v>http://www.google.com</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
+        <f>HYPERLINK(("http://www.google.com")   )</f>
+        <v>http://www.google.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -306,13 +563,14 @@
     <mergeCell ref="C7:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="Ext from link"/>
+    <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A5" location="B5" display="link to B5"/>
+    <hyperlink ref="G1" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -320,25 +578,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6020408163265"/>
+    <col min="1" max="1025" width="10.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
